--- a/docs/shrcore/shr-core-Timing.xlsx
+++ b/docs/shrcore/shr-core-Timing.xlsx
@@ -660,7 +660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL24"/>
+  <dimension ref="A1:AK24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>

--- a/docs/shrcore/shr-core-Timing.xlsx
+++ b/docs/shrcore/shr-core-Timing.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$25</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="164">
   <si>
     <t>Path</t>
   </si>
@@ -147,37 +147,30 @@
 Timing offers a choice of multiple OccurrenceTime (used is used to specify specific times), or recurrence patterns.</t>
   </si>
   <si>
-    <t>A timing schedule can be either a list of events - intervals on which the event occurs, or a single event with repeating criteria or just repeating criteria with no actual event.  When both event and a repeating specification are provided, the list of events should be understood as an interpretation of the information in the repeat structure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
+    <t>Describes the occurrence of an event that may occur multiple times. Timing schedules are used for specifying when events are expected or requested to occur, and may also be used to represent the summary of a past or ongoing event.  For simplicity, the definitions of Timing components are expressed as 'future' events, but such components can also be used to describe historic or ongoing events.
+A Timing schedule can be a list of events and/or criteria for when the event happens, which can be expressed in a structured form and/or as a code. When both event and a repeating specification are provided, the list of events should be understood as an interpretation of the information in the repeat structure.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>QSET&lt;TS&gt; (GTS)</t>
+  </si>
+  <si>
+    <t>Timing.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>QSET&lt;TS&gt; (GTS)</t>
-  </si>
-  <si>
-    <t>Timing.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -193,14 +186,14 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -219,13 +212,33 @@
     <t>Element.extension</t>
   </si>
   <si>
+    <t>Timing.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
     <t>Timing.event</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -235,7 +248,7 @@
     <t>Identifies specific times when the event occurs.</t>
   </si>
   <si>
-    <t>In an MAR, for instance, you need to take a general specification, and turn it into a precise specification.</t>
+    <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
   </si>
   <si>
     <t>QLIST&lt;TS&gt;</t>
@@ -244,7 +257,7 @@
     <t>Timing.repeat</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {[]} {[]}
+    <t xml:space="preserve">Element
 </t>
   </si>
   <si>
@@ -257,8 +270,8 @@
     <t>Many timing schedules are determined by regular repetitions.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-tim-9:If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-5:period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-1:if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-10:If there's a timeOfDay, there cannot be be a when, or vice versa {timeOfDay.empty() or when.empty()}tim-2:if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+tim-9:If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-5:period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-1:if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-10:If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}tim-2:if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}</t>
   </si>
   <si>
     <t>Implies PIVL or EIVL</t>
@@ -273,8 +286,8 @@
     <t>Timing.repeat.bounds[x]</t>
   </si>
   <si>
-    <t>Duration {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Duration]]} {[]}
-Range {[]} {[]}Period {[]} {[]}</t>
+    <t>Duration {http://hl7.org/fhir/us/obf/StructureDefinition/shr-core-Duration}
+RangePeriod</t>
   </si>
   <si>
     <t>Length/Range of lengths, or (Start and/or end) limits</t>
@@ -289,14 +302,14 @@
     <t>Timing.repeat.count</t>
   </si>
   <si>
-    <t xml:space="preserve">integer {[]} {[]}
+    <t xml:space="preserve">positiveInt
 </t>
   </si>
   <si>
     <t>Number of times to repeat</t>
   </si>
   <si>
-    <t>A total count of the desired number of repetitions.</t>
+    <t>A total count of the desired number of repetitions across the duration of the entire timing specification. If countMax is present, this element indicates the lower bound of the allowed range of count values.</t>
   </si>
   <si>
     <t>If you have both bounds and count, then this should be understood as within the bounds period, until count times happens.</t>
@@ -314,20 +327,20 @@
     <t>Maximum number of times to repeat</t>
   </si>
   <si>
-    <t>A maximum value for the count of the desired repetitions (e.g. do something 6-8 times).</t>
+    <t>If present, indicates that the count is a range - so to perform the action between [count] and [countMax] times.</t>
   </si>
   <si>
     <t>Timing.repeat.duration</t>
   </si>
   <si>
-    <t xml:space="preserve">decimal {[]} {[]}
+    <t xml:space="preserve">decimal
 </t>
   </si>
   <si>
     <t>How long when it happens</t>
   </si>
   <si>
-    <t>How long this thing happens for when it happens.</t>
+    <t>How long this thing happens for when it happens. If durationMax is present, this element indicates the lower bound of the allowed range of the duration.</t>
   </si>
   <si>
     <t>For some events the duration is part of the definition of the event (e.g. IV infusions, where the duration is implicit in the specified quantity and rate). For others, it's part of the timing specification (e.g. exercise).</t>
@@ -345,13 +358,13 @@
     <t>How long when it happens (Max)</t>
   </si>
   <si>
-    <t>The upper limit of how long this thing happens for when it happens.</t>
+    <t>If present, indicates that the duration is a range - so to perform the action between [duration] and [durationMax] time length.</t>
   </si>
   <si>
     <t>Timing.repeat.durationUnit</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -367,7 +380,7 @@
     <t>A unit of time (units from UCUM).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/units-of-time</t>
+    <t>http://hl7.org/fhir/ValueSet/units-of-time|4.0.0</t>
   </si>
   <si>
     <t>PIVL.phase.unit</t>
@@ -379,10 +392,10 @@
     <t>Event occurs frequency times per period</t>
   </si>
   <si>
-    <t>The number of times to repeat the action within the specified period / period range (i.e. both period and periodMax provided).</t>
-  </si>
-  <si>
-    <t>&lt;valueInteger xmlns="http://hl7.org/fhir" value="1"/&gt;</t>
+    <t>The number of times to repeat the action within the specified period. If frequencyMax is present, this element indicates the lower bound of the allowed range of the frequency.</t>
+  </si>
+  <si>
+    <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
   </si>
   <si>
     <t>Timing.repeat.frequencyMax</t>
@@ -397,7 +410,7 @@
     <t>Timing.repeat.period</t>
   </si>
   <si>
-    <t>Indicates the duration of time over which repetitions are to occur; e.g. to express "3 times per day", 3 would be the frequency and "1 day" would be the period.</t>
+    <t>Indicates the duration of time over which repetitions are to occur; e.g. to express "3 times per day", 3 would be the frequency and "1 day" would be the period. If periodMax is present, this element indicates the lower bound of the allowed range of the period length.</t>
   </si>
   <si>
     <t>Timing.repeat.periodMax</t>
@@ -427,13 +440,13 @@
     <t>If no days are specified, the action is assumed to happen every day as otherwise specified. The elements frequency and period cannot be used as well as dayOfWeek.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/days-of-week</t>
+    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.0</t>
   </si>
   <si>
     <t>Timing.repeat.timeOfDay</t>
   </si>
   <si>
-    <t xml:space="preserve">time {[]} {[]}
+    <t xml:space="preserve">time
 </t>
   </si>
   <si>
@@ -449,10 +462,10 @@
     <t>Timing.repeat.when</t>
   </si>
   <si>
-    <t>Regular life events the event is tied to</t>
-  </si>
-  <si>
-    <t>Real world events that the occurrence of the event should be tied to.</t>
+    <t>Code for time period of occurrence</t>
+  </si>
+  <si>
+    <t>An approximate time period during the day, potentially linked to an event of daily living that indicates when the action should occur.</t>
   </si>
   <si>
     <t>When more than one event is listed, the event is tied to the union of the specified events.</t>
@@ -464,7 +477,7 @@
     <t>Real world event relating to the schedule.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/event-timing</t>
+    <t>http://hl7.org/fhir/ValueSet/event-timing|4.0.0</t>
   </si>
   <si>
     <t>EIVL.event</t>
@@ -473,7 +486,7 @@
     <t>Timing.repeat.offset</t>
   </si>
   <si>
-    <t xml:space="preserve">unsignedInt {[]} {[]}
+    <t xml:space="preserve">unsignedInt
 </t>
   </si>
   <si>
@@ -489,17 +502,17 @@
     <t>Timing.code</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>BID | TID | QID | AM | PM | QD | QOD | Q4H | Q6H +</t>
-  </si>
-  <si>
-    <t>A code for the timing schedule. Some codes such as BID are ubiquitous, but many institutions define their own additional codes. If a code is provided, the code is understood to be a complete statement of whatever is specified in the structured timing data, and either the code or the data may be used to interpret the Timing, with the exception that .repeat.bounds still applies over the code (and is not contained in the code).</t>
-  </si>
-  <si>
-    <t>BID etc are defined as 'at institutionally specified times'. For example, an institution may choose that BID is "always at 7am and 6pm".  If it is inappropriate for this choice to be made, the code BID should not be used. Instead, a distinct organization-specific code should be used in place of the HL7-defined BID code and/or the a structured representation should be used (in this case, specifying the two event times).</t>
+    <t>BID | TID | QID | AM | PM | QD | QOD | +</t>
+  </si>
+  <si>
+    <t>A code for the timing schedule (or just text in code.text). Some codes such as BID are ubiquitous, but many institutions define their own additional codes. If a code is provided, the code is understood to be a complete statement of whatever is specified in the structured timing data, and either the code or the data may be used to interpret the Timing, with the exception that .repeat.bounds still applies over the code (and is not contained in the code).</t>
+  </si>
+  <si>
+    <t>BID etc. are defined as 'at institutionally specified times'. For example, an institution may choose that BID is "always at 7am and 6pm".  If it is inappropriate for this choice to be made, the code BID should not be used. Instead, a distinct organization-specific code should be used in place of the HL7-defined BID code and/or a structured representation should be used (in this case, specifying the two event times).</t>
   </si>
   <si>
     <t>extensible</t>
@@ -564,67 +577,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -660,7 +673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK24"/>
+  <dimension ref="A1:AK25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -671,7 +684,7 @@
   <cols>
     <col min="1" max="1" width="26.98828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="20.859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
@@ -679,11 +692,11 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="49.390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="50.66796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="49.49609375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -699,7 +712,7 @@
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -904,27 +917,31 @@
       <c r="AD2" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AE2" s="2"/>
+      <c r="AE2" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="AF2" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AG2" s="2"/>
+      <c r="AG2" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AH2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AI2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>47</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -935,25 +952,25 @@
         <v>39</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="K3" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>52</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1004,13 +1021,13 @@
         <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>38</v>
@@ -1022,16 +1039,16 @@
         <v>38</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1050,16 +1067,16 @@
         <v>38</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1097,19 +1114,19 @@
         <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>62</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>39</v>
@@ -1127,16 +1144,16 @@
         <v>38</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -1149,23 +1166,25 @@
         <v>38</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="J5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="M5" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="N5" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" t="s" s="2">
-        <v>70</v>
       </c>
       <c r="O5" t="s" s="2">
         <v>38</v>
@@ -1213,11 +1232,15 @@
       <c r="AD5" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AE5" s="2"/>
+      <c r="AE5" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="AF5" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AG5" s="2"/>
+      <c r="AG5" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AH5" t="s" s="2">
         <v>38</v>
       </c>
@@ -1228,12 +1251,12 @@
         <v>38</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>71</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1244,7 +1267,7 @@
         <v>39</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>38</v>
@@ -1253,20 +1276,20 @@
         <v>38</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O6" t="s" s="2">
         <v>38</v>
@@ -1314,27 +1337,31 @@
       <c r="AD6" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AE6" s="2"/>
+      <c r="AE6" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="AF6" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AG6" s="2"/>
+      <c r="AG6" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AH6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1345,7 +1372,7 @@
         <v>39</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>38</v>
@@ -1354,19 +1381,21 @@
         <v>38</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="N7" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="O7" t="s" s="2">
         <v>38</v>
       </c>
@@ -1414,41 +1443,41 @@
         <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>38</v>
@@ -1460,17 +1489,15 @@
         <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>60</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>38</v>
@@ -1507,25 +1534,25 @@
         <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>38</v>
@@ -1537,23 +1564,23 @@
         <v>38</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>38</v>
@@ -1562,18 +1589,20 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>58</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>38</v>
@@ -1610,22 +1639,26 @@
         <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE9" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>62</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>38</v>
       </c>
@@ -1636,12 +1669,12 @@
         <v>38</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1652,7 +1685,7 @@
         <v>39</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>38</v>
@@ -1661,23 +1694,19 @@
         <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>91</v>
-      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>38</v>
       </c>
@@ -1724,11 +1753,15 @@
       <c r="AD10" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>38</v>
       </c>
@@ -1739,12 +1772,12 @@
         <v>38</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1755,7 +1788,7 @@
         <v>39</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>38</v>
@@ -1764,19 +1797,23 @@
         <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>38</v>
       </c>
@@ -1823,11 +1860,15 @@
       <c r="AD11" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="AF11" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>38</v>
       </c>
@@ -1838,12 +1879,12 @@
         <v>38</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1854,7 +1895,7 @@
         <v>39</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>38</v>
@@ -1863,10 +1904,10 @@
         <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>98</v>
@@ -1874,12 +1915,8 @@
       <c r="L12" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>101</v>
-      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>38</v>
       </c>
@@ -1926,11 +1963,15 @@
       <c r="AD12" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AE12" s="2"/>
+      <c r="AE12" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="AF12" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AG12" s="2"/>
+      <c r="AG12" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="AH12" t="s" s="2">
         <v>38</v>
       </c>
@@ -1941,12 +1982,12 @@
         <v>38</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1957,7 +1998,7 @@
         <v>39</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>38</v>
@@ -1966,22 +2007,22 @@
         <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>38</v>
@@ -2029,11 +2070,15 @@
       <c r="AD13" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AE13" s="2"/>
+      <c r="AE13" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="AF13" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AG13" s="2"/>
+      <c r="AG13" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="AH13" t="s" s="2">
         <v>38</v>
       </c>
@@ -2044,12 +2089,12 @@
         <v>38</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2060,7 +2105,7 @@
         <v>39</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>38</v>
@@ -2069,10 +2114,10 @@
         <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>108</v>
@@ -2080,8 +2125,12 @@
       <c r="L14" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="M14" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>38</v>
       </c>
@@ -2105,13 +2154,13 @@
         <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>38</v>
@@ -2128,11 +2177,15 @@
       <c r="AD14" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AE14" s="2"/>
+      <c r="AE14" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="AF14" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AG14" s="2"/>
+      <c r="AG14" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="AH14" t="s" s="2">
         <v>38</v>
       </c>
@@ -2143,12 +2196,12 @@
         <v>38</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2159,7 +2212,7 @@
         <v>39</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>38</v>
@@ -2168,21 +2221,21 @@
         <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
@@ -2204,13 +2257,13 @@
         <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>38</v>
@@ -2227,11 +2280,15 @@
       <c r="AD15" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AE15" s="2"/>
+      <c r="AE15" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="AF15" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AG15" s="2"/>
+      <c r="AG15" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="AH15" t="s" s="2">
         <v>38</v>
       </c>
@@ -2242,7 +2299,7 @@
         <v>38</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" hidden="true">
@@ -2258,7 +2315,7 @@
         <v>39</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>38</v>
@@ -2267,10 +2324,10 @@
         <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>119</v>
@@ -2283,7 +2340,9 @@
       <c r="O16" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="P16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="Q16" t="s" s="2">
         <v>38</v>
       </c>
@@ -2326,11 +2385,15 @@
       <c r="AD16" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AE16" s="2"/>
+      <c r="AE16" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AG16" s="2"/>
+      <c r="AG16" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="AH16" t="s" s="2">
         <v>38</v>
       </c>
@@ -2341,12 +2404,12 @@
         <v>38</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2357,7 +2420,7 @@
         <v>39</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>38</v>
@@ -2366,16 +2429,16 @@
         <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2425,11 +2488,15 @@
       <c r="AD17" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AE17" s="2"/>
+      <c r="AE17" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="AF17" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AG17" s="2"/>
+      <c r="AG17" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="AH17" t="s" s="2">
         <v>38</v>
       </c>
@@ -2440,12 +2507,12 @@
         <v>38</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2456,7 +2523,7 @@
         <v>39</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>38</v>
@@ -2465,16 +2532,16 @@
         <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2524,11 +2591,15 @@
       <c r="AD18" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AE18" s="2"/>
+      <c r="AE18" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AG18" s="2"/>
+      <c r="AG18" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="AH18" t="s" s="2">
         <v>38</v>
       </c>
@@ -2539,12 +2610,12 @@
         <v>38</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2555,7 +2626,7 @@
         <v>39</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>38</v>
@@ -2564,16 +2635,16 @@
         <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2600,13 +2671,13 @@
         <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>38</v>
@@ -2623,11 +2694,15 @@
       <c r="AD19" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AE19" s="2"/>
+      <c r="AE19" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AG19" s="2"/>
+      <c r="AG19" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="AH19" t="s" s="2">
         <v>38</v>
       </c>
@@ -2638,12 +2713,12 @@
         <v>38</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2654,7 +2729,7 @@
         <v>39</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>38</v>
@@ -2663,20 +2738,18 @@
         <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M20" t="s" s="2">
         <v>131</v>
       </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>38</v>
@@ -2701,11 +2774,13 @@
         <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X20" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="Y20" t="s" s="2">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>38</v>
@@ -2722,11 +2797,15 @@
       <c r="AD20" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AE20" s="2"/>
+      <c r="AE20" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AG20" s="2"/>
+      <c r="AG20" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="AH20" t="s" s="2">
         <v>38</v>
       </c>
@@ -2737,12 +2816,12 @@
         <v>38</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>54</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2762,19 +2841,19 @@
         <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -2800,13 +2879,11 @@
         <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>38</v>
@@ -2823,11 +2900,15 @@
       <c r="AD21" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AE21" s="2"/>
+      <c r="AE21" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AG21" s="2"/>
+      <c r="AG21" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AH21" t="s" s="2">
         <v>38</v>
       </c>
@@ -2838,12 +2919,12 @@
         <v>38</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2863,10 +2944,10 @@
         <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>139</v>
@@ -2877,9 +2958,7 @@
       <c r="M22" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="N22" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>38</v>
       </c>
@@ -2903,13 +2982,13 @@
         <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>38</v>
@@ -2926,11 +3005,15 @@
       <c r="AD22" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AE22" s="2"/>
+      <c r="AE22" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="AF22" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AG22" s="2"/>
+      <c r="AG22" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AH22" t="s" s="2">
         <v>38</v>
       </c>
@@ -2941,12 +3024,12 @@
         <v>38</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>145</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2957,7 +3040,7 @@
         <v>39</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>38</v>
@@ -2966,19 +3049,23 @@
         <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>38</v>
       </c>
@@ -3002,13 +3089,13 @@
         <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>38</v>
@@ -3025,11 +3112,15 @@
       <c r="AD23" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AE23" s="2"/>
+      <c r="AE23" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AG23" s="2"/>
+      <c r="AG23" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AH23" t="s" s="2">
         <v>38</v>
       </c>
@@ -3040,12 +3131,12 @@
         <v>38</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3056,7 +3147,7 @@
         <v>39</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>38</v>
@@ -3065,20 +3156,18 @@
         <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>38</v>
@@ -3103,49 +3192,158 @@
         <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="J25" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="X24" t="s" s="2">
+      <c r="K25" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE24" s="2"/>
-      <c r="AF24" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG24" s="2"/>
-      <c r="AH24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK24" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>159</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK24">
+  <autoFilter ref="A1:AK25">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3155,7 +3353,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI23">
+  <conditionalFormatting sqref="A2:AI24">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
